--- a/docs/Part1-UI-TestDesign.xlsx
+++ b/docs/Part1-UI-TestDesign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viet/Desktops/qa-automation-cypress/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2063AFDF-BA6F-3940-95B4-C0CFA8ED1F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05377DE0-A897-A64B-B5E9-F0A36863F1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,21 +81,7 @@
     <t>Verify that the search returns  no results matching the keyword</t>
   </si>
   <si>
-    <t>"1. Enter a special keyword (Ex: "!@#$"..)
-&gt; Verify that search result model is displayed with only one item: "Search for pages containing" + &lt;keywords&gt;
-2. Click on the  item
-&gt; Verify that Search results page is displayed with
-- Advanced search: Sort by relevance
-- Search in: Articles
-- Search hint: There were no results matching the query.
-- No pagination is displayed</t>
-  </si>
-  <si>
     <t>1. Users (visitor/logged users) access the main page at link: https://en.wikipedia.org/wiki/Main_Page</t>
-  </si>
-  <si>
-    <t>1. Users (visitor/logged users) access the main page at link: https://en.wikipedia.org/wiki/Main_Page
-2. Search keywords which doesn't link to the existing page on Wikipedia (Ex: "!@#$")</t>
   </si>
   <si>
     <t>Verify that the search result is consistent with case sensivity</t>
@@ -197,10 +183,6 @@
   </si>
   <si>
     <t>Verify pagination functions consistently if many results are matching with the search keyword</t>
-  </si>
-  <si>
-    <t>1. Verify the offset, the iterator (Ex: 20 items per page
-2. Verify the pagination or "Next" and "Previous" buttons in search results.</t>
   </si>
   <si>
     <t>Verify search functionality still works fine in different languagues</t>
@@ -307,6 +289,24 @@
   </si>
   <si>
     <t>UI-11</t>
+  </si>
+  <si>
+    <t>"1. Enter a special keyword (Ex: "notFoundKeyword2024"..)
+&gt; Verify that search result model is displayed with only one item: "Search for pages containing" + &lt;keywords&gt;
+2. Click on the  item
+&gt; Verify that Search results page is displayed with
+- Advanced search: Sort by relevance
+- Search in: Articles
+- Search hint: There were no results matching the query.
+- No pagination is displayed</t>
+  </si>
+  <si>
+    <t>1. Users (visitor/logged users) access the main page at link: https://en.wikipedia.org/wiki/Main_Page
+2. Search keywords which doesn't link to the existing page on Wikipedia (Ex: "notFoundKeyword2024")</t>
+  </si>
+  <si>
+    <t>1. Verify the offset, the iterator (Ex: 20 items per page)
+2. Verify the pagination functionality and valid search result list when clicking on "Next" and "Previous" buttons or any range of pages on the navigation page of search result view.</t>
   </si>
 </sst>
 </file>
@@ -472,10 +472,10 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -835,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -855,22 +855,22 @@
   <sheetData>
     <row r="1" spans="1:12" s="9" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>11</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>0</v>
@@ -882,27 +882,27 @@
         <v>2</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="176" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>53</v>
+      <c r="A2" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>3</v>
@@ -911,14 +911,14 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="240" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>10</v>
@@ -927,61 +927,61 @@
         <v>12</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="144" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="16"/>
+      <c r="A4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="17"/>
       <c r="C4" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="16"/>
+      <c r="A5" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="17"/>
       <c r="C5" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>3</v>
@@ -990,21 +990,21 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:12" ht="96" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="16"/>
+      <c r="A6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="17"/>
       <c r="C6" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>3</v>
@@ -1013,21 +1013,21 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:12" ht="96" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="16"/>
+      <c r="A7" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="17"/>
       <c r="C7" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>3</v>
@@ -1036,21 +1036,21 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="96" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="16"/>
+      <c r="A8" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="17"/>
       <c r="C8" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>3</v>
@@ -1059,21 +1059,21 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="160" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="16"/>
+      <c r="A9" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="17"/>
       <c r="C9" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>3</v>
@@ -1082,46 +1082,46 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="80" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="G10" s="14" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:12" ht="192" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="16"/>
+      <c r="A11" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="17"/>
       <c r="C11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>5</v>
@@ -1130,21 +1130,21 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="16"/>
+      <c r="A12" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="17"/>
       <c r="C12" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>3</v>
